--- a/13/2/2/2/Otros activos del tesoro por tipo de Instrumentos 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/Otros activos del tesoro por tipo de Instrumentos 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Serie</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5903,6 +5906,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="172" spans="1:11">
+      <c r="A172" t="s">
+        <v>181</v>
+      </c>
+      <c r="B172">
+        <v>9953</v>
+      </c>
+      <c r="C172">
+        <v>406</v>
+      </c>
+      <c r="D172">
+        <v>2165</v>
+      </c>
+      <c r="E172">
+        <v>682</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>1400</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>5300</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/Otros activos del tesoro por tipo de Instrumentos 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/Otros activos del tesoro por tipo de Instrumentos 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Serie</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5941,6 +5944,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="173" spans="1:11">
+      <c r="A173" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173">
+        <v>7790</v>
+      </c>
+      <c r="C173">
+        <v>577</v>
+      </c>
+      <c r="D173">
+        <v>1818</v>
+      </c>
+      <c r="E173">
+        <v>1148</v>
+      </c>
+      <c r="F173">
+        <v>446</v>
+      </c>
+      <c r="G173">
+        <v>1500</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>2300</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/Otros activos del tesoro por tipo de Instrumentos 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/Otros activos del tesoro por tipo de Instrumentos 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5979,6 +5982,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="174" spans="1:11">
+      <c r="A174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B174">
+        <v>7353</v>
+      </c>
+      <c r="C174">
+        <v>497</v>
+      </c>
+      <c r="D174">
+        <v>1345</v>
+      </c>
+      <c r="E174">
+        <v>993</v>
+      </c>
+      <c r="F174">
+        <v>749</v>
+      </c>
+      <c r="G174">
+        <v>1370</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>2400</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
